--- a/src/private/templates/company_detail_export.xlsx
+++ b/src/private/templates/company_detail_export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Registration stage" sheetId="1" state="visible" r:id="rId2"/>
@@ -4055,9 +4055,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4270,51 +4274,47 @@
     <tabColor rgb="FF4F81BD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A255"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A486" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A276" activeCellId="0" sqref="276:276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="13" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="153" min="20" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="154" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="77.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="14.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4330,29 +4330,20 @@
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="139" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="145" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="148" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="151" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="201" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4366,10 +4357,8 @@
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4390,17 +4379,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="276:276 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.67611336032389"/>
     <col collapsed="false" hidden="false" max="26" min="9" style="0" width="8.67611336032389"/>
@@ -4435,18 +4424,18 @@
   <dimension ref="G1:H126"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="276:276 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="26" min="8" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
@@ -4583,16 +4572,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="276:276 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.8016194331984"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
@@ -4620,17 +4609,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="276:276 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.226720647773"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="26" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
@@ -4673,50 +4662,50 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="276:276 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="26" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -4724,13 +4713,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -4738,13 +4727,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -4752,13 +4741,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -4766,13 +4755,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>2.2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -4780,13 +4769,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>2.3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -4794,13 +4783,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>2.4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -4808,13 +4797,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -4822,13 +4811,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -4836,28 +4825,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -4865,163 +4854,163 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>2.7</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
@@ -5029,66 +5018,66 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -5096,13 +5085,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>4.1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -5110,13 +5099,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>4.2</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -5124,13 +5113,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>4.3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -5138,72 +5127,72 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>4.4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>5.1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -5211,13 +5200,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>5.2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>18</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -5225,13 +5214,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>5.3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>19</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -5239,30 +5228,30 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>5.4</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>19</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -5290,13 +5279,13 @@
   <dimension ref="A2:C171"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="276:276 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
@@ -6858,4487 +6847,4487 @@
   <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="276:276 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="26" min="8" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="17" t="n">
         <v>93</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>358</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="17" t="n">
         <v>355</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="17" t="n">
         <v>213</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="17" t="n">
         <v>376</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="17" t="n">
         <v>244</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="B16" s="19" t="n">
+      <c r="B16" s="20" t="n">
         <v>672</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="9" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>54</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>374</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>297</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="22" t="n">
         <v>247</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>61</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="9" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="17" t="n">
         <v>994</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="17" t="n">
         <v>973</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="16" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="B27" s="16" t="n">
+      <c r="B27" s="17" t="n">
         <v>880</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="16" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="16" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="17" t="n">
         <v>375</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="16" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="17" t="n">
         <v>501</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="17" t="n">
         <v>229</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="17" t="n">
         <v>975</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="9" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="17" t="n">
         <v>591</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="17" t="n">
         <v>387</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="9" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="17" t="n">
         <v>267</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="B39" s="16" t="n">
+      <c r="B39" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="8" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="9" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B40" s="19" t="n">
+      <c r="B40" s="20" t="n">
         <v>246</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="B41" s="16" t="n">
+      <c r="B41" s="17" t="n">
         <v>673</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="9" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="B42" s="16" t="n">
+      <c r="B42" s="17" t="n">
         <v>359</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="B43" s="16" t="n">
+      <c r="B43" s="17" t="n">
         <v>226</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="9" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="17" t="n">
         <v>257</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="9" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="17" t="n">
         <v>855</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="B46" s="16" t="n">
+      <c r="B46" s="17" t="n">
         <v>237</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="9" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="B47" s="16" t="n">
+      <c r="B47" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="9" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="B48" s="16" t="n">
+      <c r="B48" s="17" t="n">
         <v>238</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="9" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B49" s="16" t="n">
+      <c r="B49" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="9" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="B50" s="16" t="n">
+      <c r="B50" s="17" t="n">
         <v>236</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="9" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="B51" s="16" t="n">
+      <c r="B51" s="17" t="n">
         <v>235</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="9" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="9" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="B53" s="16" t="n">
+      <c r="B53" s="17" t="n">
         <v>86</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="9" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="B54" s="19" t="n">
+      <c r="B54" s="20" t="n">
         <v>61</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="19" t="n">
+      <c r="B55" s="20" t="n">
         <v>61</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="10"/>
+      <c r="G55" s="9" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="B56" s="16" t="n">
+      <c r="B56" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="8" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="9" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B57" s="16" t="n">
+      <c r="B57" s="17" t="n">
         <v>269</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="9" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B58" s="16" t="n">
+      <c r="B58" s="17" t="n">
         <v>242</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8" t="s">
+      <c r="C58" s="18"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="9" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="B59" s="16" t="n">
+      <c r="B59" s="17" t="n">
         <v>243</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="9" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="17" t="n">
         <v>682</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="17" t="n">
         <v>506</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="8" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="B62" s="16" t="n">
+      <c r="B62" s="17" t="n">
         <v>225</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8" t="s">
+      <c r="C62" s="18"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="8" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="9" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="B63" s="16" t="n">
+      <c r="B63" s="17" t="n">
         <v>385</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="8" t="s">
+      <c r="C63" s="18"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="9" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B64" s="16" t="n">
+      <c r="B64" s="17" t="n">
         <v>53</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="8" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="9" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="B65" s="16" t="n">
+      <c r="B65" s="17" t="n">
         <v>5399</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="8" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="9" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="B66" s="21" t="n">
+      <c r="B66" s="22" t="n">
         <v>599</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="8" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="B67" s="16" t="n">
+      <c r="B67" s="17" t="n">
         <v>357</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="8" t="s">
+      <c r="F67" s="10"/>
+      <c r="G67" s="9" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="B68" s="16" t="n">
+      <c r="B68" s="17" t="n">
         <v>420</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="8" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="9" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B69" s="16" t="n">
+      <c r="B69" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="8" t="s">
+      <c r="F69" s="10"/>
+      <c r="G69" s="9" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="B70" s="16" t="n">
+      <c r="B70" s="17" t="n">
         <v>253</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="8" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="10"/>
+      <c r="G70" s="9" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B71" s="16" t="n">
+      <c r="B71" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="8" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="8" t="s">
+      <c r="F71" s="10"/>
+      <c r="G71" s="9" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="B72" s="16" t="n">
+      <c r="B72" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="8" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="8" t="s">
+      <c r="F72" s="10"/>
+      <c r="G72" s="9" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B73" s="21" t="n">
+      <c r="B73" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="8" t="s">
+      <c r="F73" s="10"/>
+      <c r="G73" s="9" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="B74" s="21" t="n">
+      <c r="B74" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="8" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="9" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="B75" s="16" t="n">
+      <c r="B75" s="17" t="n">
         <v>593</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="8" t="s">
+      <c r="C75" s="18"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="8" t="s">
+      <c r="F75" s="10"/>
+      <c r="G75" s="9" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B76" s="16" t="n">
+      <c r="B76" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="8" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="9" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="B77" s="16" t="n">
+      <c r="B77" s="17" t="n">
         <v>503</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="8" t="s">
+      <c r="C77" s="18"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="8" t="s">
+      <c r="F77" s="10"/>
+      <c r="G77" s="9" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="B78" s="16" t="n">
+      <c r="B78" s="17" t="n">
         <v>240</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="8" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="8" t="s">
+      <c r="F78" s="10"/>
+      <c r="G78" s="9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="B79" s="16" t="n">
+      <c r="B79" s="17" t="n">
         <v>291</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="8" t="s">
+      <c r="C79" s="18"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="8" t="s">
+      <c r="F79" s="10"/>
+      <c r="G79" s="9" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="B80" s="16" t="n">
+      <c r="B80" s="17" t="n">
         <v>372</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="8" t="s">
+      <c r="C80" s="18"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="8" t="s">
+      <c r="F80" s="10"/>
+      <c r="G80" s="9" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="B81" s="16" t="n">
+      <c r="B81" s="17" t="n">
         <v>251</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8" t="s">
+      <c r="C81" s="18"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="8" t="s">
+      <c r="F81" s="10"/>
+      <c r="G81" s="9" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="B82" s="16" t="n">
+      <c r="B82" s="17" t="n">
         <v>500</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="8" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="8" t="s">
+      <c r="F82" s="10"/>
+      <c r="G82" s="9" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="B83" s="16" t="n">
+      <c r="B83" s="17" t="n">
         <v>298</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="8" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="8" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="9" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="B84" s="16" t="n">
+      <c r="B84" s="17" t="n">
         <v>679</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="8" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="8" t="s">
+      <c r="F84" s="10"/>
+      <c r="G84" s="9" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="B85" s="16" t="n">
+      <c r="B85" s="17" t="n">
         <v>358</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="8" t="s">
+      <c r="C85" s="18"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="8" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="9" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B86" s="16" t="n">
+      <c r="B86" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="8" t="s">
+      <c r="C86" s="18"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="8" t="s">
+      <c r="F86" s="10"/>
+      <c r="G86" s="9" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B87" s="16" t="n">
+      <c r="B87" s="17" t="n">
         <v>594</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="8" t="s">
+      <c r="C87" s="18"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="8" t="s">
+      <c r="F87" s="10"/>
+      <c r="G87" s="9" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B88" s="16" t="n">
+      <c r="B88" s="17" t="n">
         <v>689</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="8" t="s">
+      <c r="C88" s="18"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="10"/>
+      <c r="G88" s="9" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="B89" s="19" t="n">
+      <c r="B89" s="20" t="n">
         <v>596</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="8" t="s">
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="8" t="s">
+      <c r="F89" s="10"/>
+      <c r="G89" s="9" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="B90" s="16" t="n">
+      <c r="B90" s="17" t="n">
         <v>241</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="8" t="s">
+      <c r="C90" s="18"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="10"/>
+      <c r="G90" s="9" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="B91" s="16" t="n">
+      <c r="B91" s="17" t="n">
         <v>220</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="8" t="s">
+      <c r="C91" s="18"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="8" t="s">
+      <c r="F91" s="10"/>
+      <c r="G91" s="9" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="B92" s="16" t="n">
+      <c r="B92" s="17" t="n">
         <v>995</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="8" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="8" t="s">
+      <c r="F92" s="10"/>
+      <c r="G92" s="9" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="B93" s="16" t="n">
+      <c r="B93" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="8" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="8" t="s">
+      <c r="F93" s="10"/>
+      <c r="G93" s="9" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="B94" s="16" t="n">
+      <c r="B94" s="17" t="n">
         <v>233</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="8" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="8" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="9" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="B95" s="16" t="n">
+      <c r="B95" s="17" t="n">
         <v>350</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="8" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="8" t="s">
+      <c r="F95" s="10"/>
+      <c r="G95" s="9" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="B96" s="16" t="n">
+      <c r="B96" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="8" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="8" t="s">
+      <c r="F96" s="10"/>
+      <c r="G96" s="9" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="B97" s="16" t="n">
+      <c r="B97" s="17" t="n">
         <v>299</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="8" t="s">
+      <c r="C97" s="18"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="8" t="s">
+      <c r="F97" s="10"/>
+      <c r="G97" s="9" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B98" s="16" t="n">
+      <c r="B98" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="8" t="s">
+      <c r="C98" s="18"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="10"/>
+      <c r="G98" s="9" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="B99" s="16" t="n">
+      <c r="B99" s="17" t="n">
         <v>590</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="8" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="10"/>
+      <c r="G99" s="9" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="B100" s="16" t="n">
+      <c r="B100" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="8" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="10"/>
+      <c r="G100" s="9" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="B101" s="16" t="n">
+      <c r="B101" s="17" t="n">
         <v>502</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="8" t="s">
+      <c r="C101" s="18"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="8" t="s">
+      <c r="F101" s="10"/>
+      <c r="G101" s="9" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="B102" s="19" t="n">
+      <c r="B102" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="8" t="s">
+      <c r="C102" s="9"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="8" t="s">
+      <c r="F102" s="10"/>
+      <c r="G102" s="9" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="B103" s="16" t="n">
+      <c r="B103" s="17" t="n">
         <v>224</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="8" t="s">
+      <c r="C103" s="18"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="8" t="s">
+      <c r="F103" s="10"/>
+      <c r="G103" s="9" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="B104" s="16" t="n">
+      <c r="B104" s="17" t="n">
         <v>245</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="8" t="s">
+      <c r="C104" s="18"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="8" t="s">
+      <c r="F104" s="10"/>
+      <c r="G104" s="9" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="B105" s="16" t="n">
+      <c r="B105" s="17" t="n">
         <v>592</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="8" t="s">
+      <c r="C105" s="18"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="8" t="s">
+      <c r="F105" s="10"/>
+      <c r="G105" s="9" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="B106" s="16" t="n">
+      <c r="B106" s="17" t="n">
         <v>509</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="8" t="s">
+      <c r="C106" s="18"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="8" t="s">
+      <c r="F106" s="10"/>
+      <c r="G106" s="9" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="20"/>
+      <c r="C107" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="8" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B108" s="16" t="n">
+      <c r="B108" s="17" t="n">
         <v>504</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="8" t="s">
+      <c r="C108" s="18"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="8" t="s">
+      <c r="F108" s="10"/>
+      <c r="G108" s="9" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B109" s="16" t="n">
+      <c r="B109" s="17" t="n">
         <v>852</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="8" t="s">
+      <c r="C109" s="18"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="8" t="s">
+      <c r="F109" s="10"/>
+      <c r="G109" s="9" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B110" s="16" t="n">
+      <c r="B110" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="8" t="s">
+      <c r="C110" s="18"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="8" t="s">
+      <c r="F110" s="10"/>
+      <c r="G110" s="9" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="B111" s="16" t="n">
+      <c r="B111" s="17" t="n">
         <v>354</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="8" t="s">
+      <c r="C111" s="18"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="8" t="s">
+      <c r="F111" s="10"/>
+      <c r="G111" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B112" s="16" t="n">
+      <c r="B112" s="17" t="n">
         <v>91</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="8" t="s">
+      <c r="C112" s="18"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="8" t="s">
+      <c r="F112" s="10"/>
+      <c r="G112" s="9" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B113" s="16" t="n">
+      <c r="B113" s="17" t="n">
         <v>62</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="8" t="s">
+      <c r="C113" s="18"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="10"/>
+      <c r="G113" s="9" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="16" t="n">
+      <c r="B114" s="17" t="n">
         <v>871</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="8" t="s">
+      <c r="C114" s="18"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="B115" s="16" t="n">
+      <c r="B115" s="17" t="n">
         <v>874</v>
       </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="8" t="s">
+      <c r="C115" s="18"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B116" s="16" t="n">
+      <c r="B116" s="17" t="n">
         <v>873</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="8" t="s">
+      <c r="C116" s="18"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B117" s="16" t="n">
+      <c r="B117" s="17" t="n">
         <v>872</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="8" t="s">
+      <c r="C117" s="18"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B118" s="16" t="n">
+      <c r="B118" s="17" t="n">
         <v>870</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="8" t="s">
+      <c r="D118" s="10"/>
+      <c r="E118" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="B119" s="16" t="n">
+      <c r="B119" s="17" t="n">
         <v>98</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="8" t="s">
+      <c r="C119" s="18"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="8" t="s">
+      <c r="F119" s="10"/>
+      <c r="G119" s="9" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="B120" s="16" t="n">
+      <c r="B120" s="17" t="n">
         <v>964</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="8" t="s">
+      <c r="C120" s="18"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="8" t="s">
+      <c r="F120" s="10"/>
+      <c r="G120" s="9" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="B121" s="16" t="n">
+      <c r="B121" s="17" t="n">
         <v>353</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="8" t="s">
+      <c r="C121" s="18"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="8" t="s">
+      <c r="F121" s="10"/>
+      <c r="G121" s="9" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="19" t="n">
+      <c r="B122" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="8" t="s">
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="8" t="s">
+      <c r="F122" s="10"/>
+      <c r="G122" s="9" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="B123" s="16" t="n">
+      <c r="B123" s="17" t="n">
         <v>972</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="8" t="s">
+      <c r="C123" s="18"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="8" t="s">
+      <c r="F123" s="10"/>
+      <c r="G123" s="9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="B124" s="16" t="n">
+      <c r="B124" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="8" t="s">
+      <c r="C124" s="18"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="8" t="s">
+      <c r="F124" s="10"/>
+      <c r="G124" s="9" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="B125" s="16" t="n">
+      <c r="B125" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="8" t="s">
+      <c r="C125" s="18"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="8" t="s">
+      <c r="F125" s="10"/>
+      <c r="G125" s="9" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="B126" s="16" t="n">
+      <c r="B126" s="17" t="n">
         <v>81</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="8" t="s">
+      <c r="C126" s="18"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="8" t="s">
+      <c r="F126" s="10"/>
+      <c r="G126" s="9" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B127" s="19" t="n">
+      <c r="B127" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="8" t="s">
+      <c r="C127" s="9"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="8" t="s">
+      <c r="F127" s="10"/>
+      <c r="G127" s="9" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="B128" s="16" t="n">
+      <c r="B128" s="17" t="n">
         <v>962</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="8" t="s">
+      <c r="C128" s="18"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="8" t="s">
+      <c r="F128" s="10"/>
+      <c r="G128" s="9" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="B129" s="16" t="n">
+      <c r="B129" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="8" t="s">
+      <c r="C129" s="18"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="8" t="s">
+      <c r="F129" s="10"/>
+      <c r="G129" s="9" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="B130" s="16" t="n">
+      <c r="B130" s="17" t="n">
         <v>254</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="8" t="s">
+      <c r="C130" s="18"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="8" t="s">
+      <c r="F130" s="10"/>
+      <c r="G130" s="9" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B131" s="16" t="n">
+      <c r="B131" s="17" t="n">
         <v>686</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="8" t="s">
+      <c r="C131" s="18"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="8" t="s">
+      <c r="F131" s="10"/>
+      <c r="G131" s="9" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B132" s="19" t="n">
+      <c r="B132" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="8" t="s">
+      <c r="C132" s="18"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="F132" s="9"/>
-      <c r="G132" s="8" t="s">
+      <c r="F132" s="10"/>
+      <c r="G132" s="9" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="B133" s="16" t="n">
+      <c r="B133" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="8" t="s">
+      <c r="C133" s="9"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="F133" s="9"/>
-      <c r="G133" s="8" t="s">
+      <c r="F133" s="10"/>
+      <c r="G133" s="9" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="B134" s="16" t="n">
+      <c r="B134" s="17" t="n">
         <v>965</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="8" t="s">
+      <c r="C134" s="18"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="8" t="s">
+      <c r="F134" s="10"/>
+      <c r="G134" s="9" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="B135" s="16" t="n">
+      <c r="B135" s="17" t="n">
         <v>996</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="8" t="s">
+      <c r="C135" s="18"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="8" t="s">
+      <c r="F135" s="10"/>
+      <c r="G135" s="9" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="B136" s="16" t="n">
+      <c r="B136" s="17" t="n">
         <v>856</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="8" t="s">
+      <c r="C136" s="18"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="8" t="s">
+      <c r="F136" s="10"/>
+      <c r="G136" s="9" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="B137" s="16" t="n">
+      <c r="B137" s="17" t="n">
         <v>371</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="8" t="s">
+      <c r="C137" s="18"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="8" t="s">
+      <c r="F137" s="10"/>
+      <c r="G137" s="9" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="B138" s="16" t="n">
+      <c r="B138" s="17" t="n">
         <v>961</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="8" t="s">
+      <c r="C138" s="18"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="8" t="s">
+      <c r="F138" s="10"/>
+      <c r="G138" s="9" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="B139" s="16" t="n">
+      <c r="B139" s="17" t="n">
         <v>266</v>
       </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="8" t="s">
+      <c r="C139" s="18"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="8" t="s">
+      <c r="F139" s="10"/>
+      <c r="G139" s="9" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="B140" s="16" t="n">
+      <c r="B140" s="17" t="n">
         <v>231</v>
       </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="8" t="s">
+      <c r="C140" s="18"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="8" t="s">
+      <c r="F140" s="10"/>
+      <c r="G140" s="9" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B141" s="16" t="n">
+      <c r="B141" s="17" t="n">
         <v>218</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="8" t="s">
+      <c r="C141" s="18"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="8" t="s">
+      <c r="F141" s="10"/>
+      <c r="G141" s="9" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="B142" s="16" t="n">
+      <c r="B142" s="17" t="n">
         <v>423</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="8" t="s">
+      <c r="C142" s="18"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="8" t="s">
+      <c r="F142" s="10"/>
+      <c r="G142" s="9" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="B143" s="16" t="n">
+      <c r="B143" s="17" t="n">
         <v>370</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="8" t="s">
+      <c r="C143" s="18"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="8" t="s">
+      <c r="F143" s="10"/>
+      <c r="G143" s="9" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="B144" s="16" t="n">
+      <c r="B144" s="17" t="n">
         <v>352</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="8" t="s">
+      <c r="C144" s="18"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="10"/>
+      <c r="G144" s="9" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="B145" s="16" t="n">
+      <c r="B145" s="17" t="n">
         <v>853</v>
       </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="8" t="s">
+      <c r="C145" s="18"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="8" t="s">
+      <c r="F145" s="10"/>
+      <c r="G145" s="9" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="B146" s="19" t="n">
+      <c r="B146" s="20" t="n">
         <v>389</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="8" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="8" t="s">
+      <c r="F146" s="10"/>
+      <c r="G146" s="9" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="B147" s="16" t="n">
+      <c r="B147" s="17" t="n">
         <v>261</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="8" t="s">
+      <c r="C147" s="18"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="8" t="s">
+      <c r="F147" s="10"/>
+      <c r="G147" s="9" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="B148" s="16" t="n">
+      <c r="B148" s="17" t="n">
         <v>265</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="8" t="s">
+      <c r="C148" s="18"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="F148" s="9"/>
-      <c r="G148" s="8" t="s">
+      <c r="F148" s="10"/>
+      <c r="G148" s="9" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="B149" s="16" t="n">
+      <c r="B149" s="17" t="n">
         <v>60</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="8" t="s">
+      <c r="C149" s="18"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="8" t="s">
+      <c r="F149" s="10"/>
+      <c r="G149" s="9" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="B150" s="16" t="n">
+      <c r="B150" s="17" t="n">
         <v>960</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="8" t="s">
+      <c r="C150" s="18"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="8" t="s">
+      <c r="F150" s="10"/>
+      <c r="G150" s="9" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="B151" s="16" t="n">
+      <c r="B151" s="17" t="n">
         <v>223</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="8" t="s">
+      <c r="C151" s="18"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="F151" s="9"/>
-      <c r="G151" s="8" t="s">
+      <c r="F151" s="10"/>
+      <c r="G151" s="9" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="B152" s="16" t="n">
+      <c r="B152" s="17" t="n">
         <v>356</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="8" t="s">
+      <c r="C152" s="18"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="F152" s="9"/>
-      <c r="G152" s="8" t="s">
+      <c r="F152" s="10"/>
+      <c r="G152" s="9" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="B153" s="16" t="n">
+      <c r="B153" s="17" t="n">
         <v>692</v>
       </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="8" t="s">
+      <c r="C153" s="18"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="F153" s="9"/>
-      <c r="G153" s="8" t="s">
+      <c r="F153" s="10"/>
+      <c r="G153" s="9" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="B154" s="16" t="n">
+      <c r="B154" s="17" t="n">
         <v>596</v>
       </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="8" t="s">
+      <c r="C154" s="18"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="8" t="s">
+      <c r="F154" s="10"/>
+      <c r="G154" s="9" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="B155" s="16" t="n">
+      <c r="B155" s="17" t="n">
         <v>222</v>
       </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="8" t="s">
+      <c r="C155" s="18"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="8" t="s">
+      <c r="F155" s="10"/>
+      <c r="G155" s="9" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="B156" s="16" t="n">
+      <c r="B156" s="17" t="n">
         <v>230</v>
       </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="8" t="s">
+      <c r="C156" s="18"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="8" t="s">
+      <c r="F156" s="10"/>
+      <c r="G156" s="9" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="B157" s="16" t="n">
+      <c r="B157" s="17" t="n">
         <v>269</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="8" t="s">
+      <c r="C157" s="18"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="8" t="s">
+      <c r="F157" s="10"/>
+      <c r="G157" s="9" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="B158" s="16" t="n">
+      <c r="B158" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="8" t="s">
+      <c r="C158" s="18"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="8" t="s">
+      <c r="F158" s="10"/>
+      <c r="G158" s="9" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="B159" s="16" t="n">
+      <c r="B159" s="17" t="n">
         <v>691</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="8" t="s">
+      <c r="C159" s="18"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="8" t="s">
+      <c r="F159" s="10"/>
+      <c r="G159" s="9" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="B160" s="16" t="n">
+      <c r="B160" s="17" t="n">
         <v>373</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="8" t="s">
+      <c r="C160" s="18"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="8" t="s">
+      <c r="F160" s="10"/>
+      <c r="G160" s="9" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="B161" s="16" t="n">
+      <c r="B161" s="17" t="n">
         <v>377</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="8" t="s">
+      <c r="C161" s="18"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="8" t="s">
+      <c r="F161" s="10"/>
+      <c r="G161" s="9" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="B162" s="16" t="n">
+      <c r="B162" s="17" t="n">
         <v>976</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="8" t="s">
+      <c r="C162" s="18"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="8" t="s">
+      <c r="F162" s="10"/>
+      <c r="G162" s="9" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="B163" s="19" t="n">
+      <c r="B163" s="20" t="n">
         <v>382</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="8" t="s">
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="8" t="s">
+      <c r="F163" s="10"/>
+      <c r="G163" s="9" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="B164" s="16" t="n">
+      <c r="B164" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="8" t="s">
+      <c r="C164" s="18"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="8" t="s">
+      <c r="F164" s="10"/>
+      <c r="G164" s="9" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="B165" s="16" t="n">
+      <c r="B165" s="17" t="n">
         <v>212</v>
       </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="8" t="s">
+      <c r="C165" s="18"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="F165" s="9"/>
-      <c r="G165" s="8" t="s">
+      <c r="F165" s="10"/>
+      <c r="G165" s="9" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="B166" s="16" t="n">
+      <c r="B166" s="17" t="n">
         <v>258</v>
       </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="8" t="s">
+      <c r="C166" s="18"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="8" t="s">
+      <c r="F166" s="10"/>
+      <c r="G166" s="9" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="B167" s="16" t="n">
+      <c r="B167" s="17" t="n">
         <v>95</v>
       </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="8" t="s">
+      <c r="C167" s="18"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="F167" s="9"/>
-      <c r="G167" s="8" t="s">
+      <c r="F167" s="10"/>
+      <c r="G167" s="9" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="B168" s="16" t="n">
+      <c r="B168" s="17" t="n">
         <v>264</v>
       </c>
-      <c r="C168" s="17"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="8" t="s">
+      <c r="C168" s="18"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="F168" s="9"/>
-      <c r="G168" s="8" t="s">
+      <c r="F168" s="10"/>
+      <c r="G168" s="9" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B169" s="16" t="n">
+      <c r="B169" s="17" t="n">
         <v>674</v>
       </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="8" t="s">
+      <c r="C169" s="18"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="F169" s="9"/>
-      <c r="G169" s="8" t="s">
+      <c r="F169" s="10"/>
+      <c r="G169" s="9" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="B170" s="16" t="n">
+      <c r="B170" s="17" t="n">
         <v>977</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="8" t="s">
+      <c r="C170" s="18"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="8" t="s">
+      <c r="F170" s="10"/>
+      <c r="G170" s="9" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="B171" s="16" t="n">
+      <c r="B171" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="8" t="s">
+      <c r="C171" s="18"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="F171" s="9"/>
-      <c r="G171" s="8" t="s">
+      <c r="F171" s="10"/>
+      <c r="G171" s="9" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="B172" s="16" t="n">
+      <c r="B172" s="17" t="n">
         <v>599</v>
       </c>
-      <c r="C172" s="17"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="8" t="s">
+      <c r="C172" s="18"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="8" t="s">
+      <c r="F172" s="10"/>
+      <c r="G172" s="9" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="B173" s="16" t="n">
+      <c r="B173" s="17" t="n">
         <v>687</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="8" t="s">
+      <c r="C173" s="18"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="8" t="s">
+      <c r="F173" s="10"/>
+      <c r="G173" s="9" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="B174" s="16" t="n">
+      <c r="B174" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="8" t="s">
+      <c r="C174" s="18"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="F174" s="9"/>
-      <c r="G174" s="8" t="s">
+      <c r="F174" s="10"/>
+      <c r="G174" s="9" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="B175" s="16" t="n">
+      <c r="B175" s="17" t="n">
         <v>505</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="8" t="s">
+      <c r="C175" s="18"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="8" t="s">
+      <c r="F175" s="10"/>
+      <c r="G175" s="9" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="B176" s="16" t="n">
+      <c r="B176" s="17" t="n">
         <v>227</v>
       </c>
-      <c r="C176" s="17"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="8" t="s">
+      <c r="C176" s="18"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="8" t="s">
+      <c r="F176" s="10"/>
+      <c r="G176" s="9" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="B177" s="16" t="n">
+      <c r="B177" s="17" t="n">
         <v>234</v>
       </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="8" t="s">
+      <c r="C177" s="18"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="F177" s="9"/>
-      <c r="G177" s="8" t="s">
+      <c r="F177" s="10"/>
+      <c r="G177" s="9" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="B178" s="16" t="n">
+      <c r="B178" s="17" t="n">
         <v>683</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="8" t="s">
+      <c r="C178" s="18"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="F178" s="9"/>
-      <c r="G178" s="8" t="s">
+      <c r="F178" s="10"/>
+      <c r="G178" s="9" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="B179" s="19" t="n">
+      <c r="B179" s="20" t="n">
         <v>672</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="8" t="s">
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="F179" s="9"/>
-      <c r="G179" s="8" t="s">
+      <c r="F179" s="10"/>
+      <c r="G179" s="9" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="B180" s="16" t="n">
+      <c r="B180" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="8" t="s">
+      <c r="C180" s="18"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="F180" s="9"/>
-      <c r="G180" s="8" t="s">
+      <c r="F180" s="10"/>
+      <c r="G180" s="9" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="B181" s="16" t="n">
+      <c r="B181" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="8" t="s">
+      <c r="C181" s="18"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="F181" s="9"/>
-      <c r="G181" s="8" t="s">
+      <c r="F181" s="10"/>
+      <c r="G181" s="9" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="B182" s="16" t="n">
+      <c r="B182" s="17" t="n">
         <v>968</v>
       </c>
-      <c r="C182" s="17"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="8" t="s">
+      <c r="C182" s="18"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="F182" s="9"/>
-      <c r="G182" s="8" t="s">
+      <c r="F182" s="10"/>
+      <c r="G182" s="9" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="B183" s="16" t="n">
+      <c r="B183" s="17" t="n">
         <v>92</v>
       </c>
-      <c r="C183" s="17"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="8" t="s">
+      <c r="C183" s="18"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="F183" s="9"/>
-      <c r="G183" s="8" t="s">
+      <c r="F183" s="10"/>
+      <c r="G183" s="9" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="B184" s="16" t="n">
+      <c r="B184" s="17" t="n">
         <v>680</v>
       </c>
-      <c r="C184" s="17"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="8" t="s">
+      <c r="C184" s="18"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="F184" s="9"/>
-      <c r="G184" s="8" t="s">
+      <c r="F184" s="10"/>
+      <c r="G184" s="9" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="B185" s="19" t="n">
+      <c r="B185" s="20" t="n">
         <v>970</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="8" t="s">
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="8" t="s">
+      <c r="F185" s="10"/>
+      <c r="G185" s="9" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="B186" s="16" t="n">
+      <c r="B186" s="17" t="n">
         <v>507</v>
       </c>
-      <c r="C186" s="17"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="8" t="s">
+      <c r="C186" s="18"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="F186" s="9"/>
-      <c r="G186" s="8" t="s">
+      <c r="F186" s="10"/>
+      <c r="G186" s="9" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="B187" s="16" t="n">
+      <c r="B187" s="17" t="n">
         <v>675</v>
       </c>
-      <c r="C187" s="17"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="8" t="s">
+      <c r="C187" s="18"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="F187" s="9"/>
-      <c r="G187" s="8" t="s">
+      <c r="F187" s="10"/>
+      <c r="G187" s="9" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="B188" s="16" t="n">
+      <c r="B188" s="17" t="n">
         <v>595</v>
       </c>
-      <c r="C188" s="17"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="8" t="s">
+      <c r="C188" s="18"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="F188" s="9"/>
-      <c r="G188" s="8" t="s">
+      <c r="F188" s="10"/>
+      <c r="G188" s="9" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="B189" s="16" t="n">
+      <c r="B189" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="C189" s="17"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="8" t="s">
+      <c r="C189" s="18"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="F189" s="9"/>
-      <c r="G189" s="8" t="s">
+      <c r="F189" s="10"/>
+      <c r="G189" s="9" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="B190" s="16" t="n">
+      <c r="B190" s="17" t="n">
         <v>63</v>
       </c>
-      <c r="C190" s="17"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="8" t="s">
+      <c r="C190" s="18"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="F190" s="9"/>
-      <c r="G190" s="8" t="s">
+      <c r="F190" s="10"/>
+      <c r="G190" s="9" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="16" t="s">
         <v>791</v>
       </c>
-      <c r="B191" s="19" t="n">
+      <c r="B191" s="20" t="n">
         <v>872</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="D191" s="9"/>
-      <c r="E191" s="8" t="s">
+      <c r="D191" s="10"/>
+      <c r="E191" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="F191" s="9"/>
-      <c r="G191" s="8" t="s">
+      <c r="F191" s="10"/>
+      <c r="G191" s="9" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="B192" s="16" t="n">
+      <c r="B192" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="C192" s="17"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="8" t="s">
+      <c r="C192" s="18"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="F192" s="9"/>
-      <c r="G192" s="8" t="s">
+      <c r="F192" s="10"/>
+      <c r="G192" s="9" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="B193" s="16" t="n">
+      <c r="B193" s="17" t="n">
         <v>351</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="8" t="s">
+      <c r="C193" s="18"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="F193" s="9"/>
-      <c r="G193" s="8" t="s">
+      <c r="F193" s="10"/>
+      <c r="G193" s="9" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="B194" s="16" t="n">
+      <c r="B194" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C194" s="17"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="8" t="s">
+      <c r="C194" s="18"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="F194" s="9"/>
-      <c r="G194" s="8" t="s">
+      <c r="F194" s="10"/>
+      <c r="G194" s="9" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="B195" s="16" t="n">
+      <c r="B195" s="17" t="n">
         <v>974</v>
       </c>
-      <c r="C195" s="17"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="8" t="s">
+      <c r="C195" s="18"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="F195" s="9"/>
-      <c r="G195" s="8" t="s">
+      <c r="F195" s="10"/>
+      <c r="G195" s="9" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="B196" s="16" t="n">
+      <c r="B196" s="17" t="n">
         <v>262</v>
       </c>
-      <c r="C196" s="17"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="8" t="s">
+      <c r="C196" s="18"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="F196" s="9"/>
-      <c r="G196" s="8" t="s">
+      <c r="F196" s="10"/>
+      <c r="G196" s="9" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="B197" s="16" t="n">
+      <c r="B197" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="C197" s="17"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="8" t="s">
+      <c r="C197" s="18"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="F197" s="9"/>
-      <c r="G197" s="8" t="s">
+      <c r="F197" s="10"/>
+      <c r="G197" s="9" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="B198" s="16" t="n">
+      <c r="B198" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C198" s="17"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="8" t="s">
+      <c r="C198" s="18"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="F198" s="9"/>
-      <c r="G198" s="8" t="s">
+      <c r="F198" s="10"/>
+      <c r="G198" s="9" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="B199" s="16" t="n">
+      <c r="B199" s="17" t="n">
         <v>250</v>
       </c>
-      <c r="C199" s="17"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="8" t="s">
+      <c r="C199" s="18"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="F199" s="9"/>
-      <c r="G199" s="8" t="s">
+      <c r="F199" s="10"/>
+      <c r="G199" s="9" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="B200" s="19" t="n">
+      <c r="B200" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="8" t="s">
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="F200" s="9"/>
-      <c r="G200" s="8" t="s">
+      <c r="F200" s="10"/>
+      <c r="G200" s="9" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="B201" s="16" t="n">
+      <c r="B201" s="17" t="n">
         <v>290</v>
       </c>
-      <c r="C201" s="17"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="8" t="s">
+      <c r="C201" s="18"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="F201" s="9"/>
-      <c r="G201" s="8" t="s">
+      <c r="F201" s="10"/>
+      <c r="G201" s="9" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="B202" s="16" t="n">
+      <c r="B202" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C202" s="17"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="8" t="s">
+      <c r="C202" s="18"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="F202" s="9"/>
-      <c r="G202" s="8" t="s">
+      <c r="F202" s="10"/>
+      <c r="G202" s="9" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="B203" s="16" t="n">
+      <c r="B203" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C203" s="17"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="8" t="s">
+      <c r="C203" s="18"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="F203" s="9"/>
-      <c r="G203" s="8" t="s">
+      <c r="F203" s="10"/>
+      <c r="G203" s="9" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="B204" s="19" t="n">
+      <c r="B204" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="8" t="s">
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="F204" s="9"/>
-      <c r="G204" s="8" t="s">
+      <c r="F204" s="10"/>
+      <c r="G204" s="9" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="B205" s="16" t="n">
+      <c r="B205" s="17" t="n">
         <v>508</v>
       </c>
-      <c r="C205" s="17"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="8" t="s">
+      <c r="C205" s="18"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="F205" s="9"/>
-      <c r="G205" s="8" t="s">
+      <c r="F205" s="10"/>
+      <c r="G205" s="9" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="16" t="s">
         <v>822</v>
       </c>
-      <c r="B206" s="16" t="n">
+      <c r="B206" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C206" s="17"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="8" t="s">
+      <c r="C206" s="18"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="F206" s="9"/>
-      <c r="G206" s="8" t="s">
+      <c r="F206" s="10"/>
+      <c r="G206" s="9" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="B207" s="16" t="n">
+      <c r="B207" s="17" t="n">
         <v>685</v>
       </c>
-      <c r="C207" s="17"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="8" t="s">
+      <c r="C207" s="18"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="F207" s="9"/>
-      <c r="G207" s="8" t="s">
+      <c r="F207" s="10"/>
+      <c r="G207" s="9" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="B208" s="16" t="n">
+      <c r="B208" s="17" t="n">
         <v>378</v>
       </c>
-      <c r="C208" s="17"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="8" t="s">
+      <c r="C208" s="18"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="F208" s="9"/>
-      <c r="G208" s="8" t="s">
+      <c r="F208" s="10"/>
+      <c r="G208" s="9" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="B209" s="16" t="n">
+      <c r="B209" s="17" t="n">
         <v>239</v>
       </c>
-      <c r="C209" s="17"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="8" t="s">
+      <c r="C209" s="18"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="F209" s="9"/>
-      <c r="G209" s="8" t="s">
+      <c r="F209" s="10"/>
+      <c r="G209" s="9" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="B210" s="16" t="n">
+      <c r="B210" s="17" t="n">
         <v>966</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="8" t="s">
+      <c r="C210" s="18"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="F210" s="9"/>
-      <c r="G210" s="8" t="s">
+      <c r="F210" s="10"/>
+      <c r="G210" s="9" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="B211" s="16" t="n">
+      <c r="B211" s="17" t="n">
         <v>221</v>
       </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="8" t="s">
+      <c r="C211" s="18"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="F211" s="9"/>
-      <c r="G211" s="8" t="s">
+      <c r="F211" s="10"/>
+      <c r="G211" s="9" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="B212" s="16" t="n">
+      <c r="B212" s="17" t="n">
         <v>381</v>
       </c>
-      <c r="C212" s="17"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="8" t="s">
+      <c r="C212" s="18"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="F212" s="9"/>
-      <c r="G212" s="8" t="s">
+      <c r="F212" s="10"/>
+      <c r="G212" s="9" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="B213" s="16" t="n">
+      <c r="B213" s="17" t="n">
         <v>248</v>
       </c>
-      <c r="C213" s="17"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="8" t="s">
+      <c r="C213" s="18"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="F213" s="9"/>
-      <c r="G213" s="8" t="s">
+      <c r="F213" s="10"/>
+      <c r="G213" s="9" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="16" t="s">
         <v>838</v>
       </c>
-      <c r="B214" s="16" t="n">
+      <c r="B214" s="17" t="n">
         <v>232</v>
       </c>
-      <c r="C214" s="17"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="8" t="s">
+      <c r="C214" s="18"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="F214" s="9"/>
-      <c r="G214" s="8" t="s">
+      <c r="F214" s="10"/>
+      <c r="G214" s="9" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="B215" s="16" t="n">
+      <c r="B215" s="17" t="n">
         <v>65</v>
       </c>
-      <c r="C215" s="17"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="8" t="s">
+      <c r="C215" s="18"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="F215" s="9"/>
-      <c r="G215" s="8" t="s">
+      <c r="F215" s="10"/>
+      <c r="G215" s="9" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="B216" s="16" t="n">
+      <c r="B216" s="17" t="n">
         <v>421</v>
       </c>
-      <c r="C216" s="17"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="8" t="s">
+      <c r="C216" s="18"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="F216" s="9"/>
-      <c r="G216" s="8" t="s">
+      <c r="F216" s="10"/>
+      <c r="G216" s="9" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="B217" s="16" t="n">
+      <c r="B217" s="17" t="n">
         <v>386</v>
       </c>
-      <c r="C217" s="17"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="8" t="s">
+      <c r="C217" s="18"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="F217" s="9"/>
-      <c r="G217" s="8" t="s">
+      <c r="F217" s="10"/>
+      <c r="G217" s="9" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="B218" s="16" t="n">
+      <c r="B218" s="17" t="n">
         <v>677</v>
       </c>
-      <c r="C218" s="17"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="8" t="s">
+      <c r="C218" s="18"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="F218" s="9"/>
-      <c r="G218" s="8" t="s">
+      <c r="F218" s="10"/>
+      <c r="G218" s="9" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="B219" s="16" t="n">
+      <c r="B219" s="17" t="n">
         <v>252</v>
       </c>
-      <c r="C219" s="17"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="8" t="s">
+      <c r="C219" s="18"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="F219" s="9"/>
-      <c r="G219" s="8" t="s">
+      <c r="F219" s="10"/>
+      <c r="G219" s="9" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="B220" s="16" t="n">
+      <c r="B220" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="C220" s="17"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="8" t="s">
+      <c r="C220" s="18"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="F220" s="9"/>
-      <c r="G220" s="8" t="s">
+      <c r="F220" s="10"/>
+      <c r="G220" s="9" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="B221" s="19"/>
-      <c r="C221" s="8" t="s">
+      <c r="B221" s="20"/>
+      <c r="C221" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="D221" s="9"/>
-      <c r="E221" s="8" t="s">
+      <c r="D221" s="10"/>
+      <c r="E221" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="23" t="s">
+      <c r="A222" s="24" t="s">
         <v>855</v>
       </c>
-      <c r="B222" s="24" t="n">
+      <c r="B222" s="25" t="n">
         <v>249</v>
       </c>
-      <c r="C222" s="25" t="s">
+      <c r="C222" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="D222" s="9"/>
-      <c r="E222" s="8" t="s">
+      <c r="D222" s="10"/>
+      <c r="E222" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="F222" s="9"/>
-      <c r="G222" s="8" t="s">
+      <c r="F222" s="10"/>
+      <c r="G222" s="9" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="B223" s="16" t="n">
+      <c r="B223" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="C223" s="17"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="8" t="s">
+      <c r="C223" s="18"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="F223" s="9"/>
-      <c r="G223" s="8" t="s">
+      <c r="F223" s="10"/>
+      <c r="G223" s="9" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="B224" s="16" t="n">
+      <c r="B224" s="17" t="n">
         <v>94</v>
       </c>
-      <c r="C224" s="17"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="8" t="s">
+      <c r="C224" s="18"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="F224" s="9"/>
-      <c r="G224" s="8" t="s">
+      <c r="F224" s="10"/>
+      <c r="G224" s="9" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="B225" s="16" t="n">
+      <c r="B225" s="17" t="n">
         <v>249</v>
       </c>
-      <c r="C225" s="17"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="8" t="s">
+      <c r="C225" s="18"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="F225" s="9"/>
-      <c r="G225" s="8" t="s">
+      <c r="F225" s="10"/>
+      <c r="G225" s="9" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="B226" s="16" t="n">
+      <c r="B226" s="17" t="n">
         <v>597</v>
       </c>
-      <c r="C226" s="17"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="8" t="s">
+      <c r="C226" s="18"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="F226" s="9"/>
-      <c r="G226" s="8" t="s">
+      <c r="F226" s="10"/>
+      <c r="G226" s="9" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="B227" s="19" t="n">
+      <c r="B227" s="20" t="n">
         <v>47</v>
       </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="8" t="s">
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="F227" s="9"/>
-      <c r="G227" s="8" t="s">
+      <c r="F227" s="10"/>
+      <c r="G227" s="9" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="B228" s="16" t="n">
+      <c r="B228" s="17" t="n">
         <v>268</v>
       </c>
-      <c r="C228" s="17"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="8" t="s">
+      <c r="C228" s="18"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="F228" s="9"/>
-      <c r="G228" s="8" t="s">
+      <c r="F228" s="10"/>
+      <c r="G228" s="9" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="B229" s="16" t="n">
+      <c r="B229" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="C229" s="17"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="8" t="s">
+      <c r="C229" s="18"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="F229" s="9"/>
-      <c r="G229" s="8" t="s">
+      <c r="F229" s="10"/>
+      <c r="G229" s="9" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="B230" s="16" t="n">
+      <c r="B230" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="C230" s="17"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="8" t="s">
+      <c r="C230" s="18"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="F230" s="9"/>
-      <c r="G230" s="8" t="s">
+      <c r="F230" s="10"/>
+      <c r="G230" s="9" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="B231" s="16" t="n">
+      <c r="B231" s="17" t="n">
         <v>963</v>
       </c>
-      <c r="C231" s="17"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="8" t="s">
+      <c r="C231" s="18"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="F231" s="9"/>
-      <c r="G231" s="8" t="s">
+      <c r="F231" s="10"/>
+      <c r="G231" s="9" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="B232" s="19" t="n">
+      <c r="B232" s="20" t="n">
         <v>886</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="8" t="s">
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="F232" s="9"/>
-      <c r="G232" s="8" t="s">
+      <c r="F232" s="10"/>
+      <c r="G232" s="9" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="B233" s="16" t="n">
+      <c r="B233" s="17" t="n">
         <v>992</v>
       </c>
-      <c r="C233" s="17"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="8" t="s">
+      <c r="C233" s="18"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="F233" s="9"/>
-      <c r="G233" s="8" t="s">
+      <c r="F233" s="10"/>
+      <c r="G233" s="9" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="B234" s="16" t="n">
+      <c r="B234" s="17" t="n">
         <v>255</v>
       </c>
-      <c r="C234" s="17"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="8" t="s">
+      <c r="C234" s="18"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="F234" s="9"/>
-      <c r="G234" s="8" t="s">
+      <c r="F234" s="10"/>
+      <c r="G234" s="9" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="B235" s="16" t="n">
+      <c r="B235" s="17" t="n">
         <v>66</v>
       </c>
-      <c r="C235" s="17"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="8" t="s">
+      <c r="C235" s="18"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="F235" s="9"/>
-      <c r="G235" s="8" t="s">
+      <c r="F235" s="10"/>
+      <c r="G235" s="9" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="B236" s="19" t="n">
+      <c r="B236" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="8" t="s">
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="F236" s="9"/>
-      <c r="G236" s="8" t="s">
+      <c r="F236" s="10"/>
+      <c r="G236" s="9" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="16" t="s">
         <v>886</v>
       </c>
-      <c r="B237" s="16" t="n">
+      <c r="B237" s="17" t="n">
         <v>228</v>
       </c>
-      <c r="C237" s="17"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="8" t="s">
+      <c r="C237" s="18"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="F237" s="9"/>
-      <c r="G237" s="8" t="s">
+      <c r="F237" s="10"/>
+      <c r="G237" s="9" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="B238" s="16" t="n">
+      <c r="B238" s="17" t="n">
         <v>690</v>
       </c>
-      <c r="C238" s="17"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="8" t="s">
+      <c r="C238" s="18"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="F238" s="9"/>
-      <c r="G238" s="8" t="s">
+      <c r="F238" s="10"/>
+      <c r="G238" s="9" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="B239" s="16" t="n">
+      <c r="B239" s="17" t="n">
         <v>676</v>
       </c>
-      <c r="C239" s="17"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="8" t="s">
+      <c r="C239" s="18"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="F239" s="9"/>
-      <c r="G239" s="8" t="s">
+      <c r="F239" s="10"/>
+      <c r="G239" s="9" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="B240" s="16" t="n">
+      <c r="B240" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C240" s="17"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="8" t="s">
+      <c r="C240" s="18"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="F240" s="9"/>
-      <c r="G240" s="8" t="s">
+      <c r="F240" s="10"/>
+      <c r="G240" s="9" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="16" t="s">
         <v>894</v>
       </c>
-      <c r="B241" s="16" t="n">
+      <c r="B241" s="17" t="n">
         <v>216</v>
       </c>
-      <c r="C241" s="17"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="8" t="s">
+      <c r="C241" s="18"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="F241" s="9"/>
-      <c r="G241" s="8" t="s">
+      <c r="F241" s="10"/>
+      <c r="G241" s="9" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="B242" s="16" t="n">
+      <c r="B242" s="17" t="n">
         <v>90</v>
       </c>
-      <c r="C242" s="17"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="8" t="s">
+      <c r="C242" s="18"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="F242" s="9"/>
-      <c r="G242" s="8" t="s">
+      <c r="F242" s="10"/>
+      <c r="G242" s="9" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="16" t="s">
         <v>898</v>
       </c>
-      <c r="B243" s="16" t="n">
+      <c r="B243" s="17" t="n">
         <v>993</v>
       </c>
-      <c r="C243" s="17"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="8" t="s">
+      <c r="C243" s="18"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="F243" s="9"/>
-      <c r="G243" s="8" t="s">
+      <c r="F243" s="10"/>
+      <c r="G243" s="9" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="16" t="s">
         <v>900</v>
       </c>
-      <c r="B244" s="16" t="n">
+      <c r="B244" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C244" s="17"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="8" t="s">
+      <c r="C244" s="18"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="F244" s="9"/>
-      <c r="G244" s="8" t="s">
+      <c r="F244" s="10"/>
+      <c r="G244" s="9" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="B245" s="16" t="n">
+      <c r="B245" s="17" t="n">
         <v>688</v>
       </c>
-      <c r="C245" s="17"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="8" t="s">
+      <c r="C245" s="18"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="F245" s="9"/>
-      <c r="G245" s="8" t="s">
+      <c r="F245" s="10"/>
+      <c r="G245" s="9" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="16" t="s">
         <v>904</v>
       </c>
-      <c r="B246" s="16" t="n">
+      <c r="B246" s="17" t="n">
         <v>256</v>
       </c>
-      <c r="C246" s="17"/>
-      <c r="D246" s="9"/>
-      <c r="E246" s="8" t="s">
+      <c r="C246" s="18"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="F246" s="9"/>
-      <c r="G246" s="8" t="s">
+      <c r="F246" s="10"/>
+      <c r="G246" s="9" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="B247" s="16" t="n">
+      <c r="B247" s="17" t="n">
         <v>380</v>
       </c>
-      <c r="C247" s="17"/>
-      <c r="D247" s="9"/>
-      <c r="E247" s="8" t="s">
+      <c r="C247" s="18"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="F247" s="9"/>
-      <c r="G247" s="8" t="s">
+      <c r="F247" s="10"/>
+      <c r="G247" s="9" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="15" t="s">
+      <c r="A248" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="B248" s="16" t="n">
+      <c r="B248" s="17" t="n">
         <v>971</v>
       </c>
-      <c r="C248" s="17"/>
-      <c r="D248" s="9"/>
-      <c r="E248" s="8" t="s">
+      <c r="C248" s="18"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="F248" s="9"/>
-      <c r="G248" s="8" t="s">
+      <c r="F248" s="10"/>
+      <c r="G248" s="9" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="16" t="s">
         <v>910</v>
       </c>
-      <c r="B249" s="16" t="n">
+      <c r="B249" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="C249" s="17"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="8" t="s">
+      <c r="C249" s="18"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="F249" s="9"/>
-      <c r="G249" s="8" t="s">
+      <c r="F249" s="10"/>
+      <c r="G249" s="9" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="B250" s="16" t="n">
+      <c r="B250" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C250" s="17"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="8" t="s">
+      <c r="C250" s="18"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="F250" s="9"/>
-      <c r="G250" s="8" t="s">
+      <c r="F250" s="10"/>
+      <c r="G250" s="9" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="B251" s="16" t="n">
+      <c r="B251" s="17" t="n">
         <v>699</v>
       </c>
-      <c r="C251" s="17"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="8" t="s">
+      <c r="C251" s="18"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="F251" s="9"/>
-      <c r="G251" s="8" t="s">
+      <c r="F251" s="10"/>
+      <c r="G251" s="9" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="16" t="s">
         <v>916</v>
       </c>
-      <c r="B252" s="16" t="n">
+      <c r="B252" s="17" t="n">
         <v>598</v>
       </c>
-      <c r="C252" s="17"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="8" t="s">
+      <c r="C252" s="18"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="F252" s="9"/>
-      <c r="G252" s="8" t="s">
+      <c r="F252" s="10"/>
+      <c r="G252" s="9" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="16" t="s">
         <v>918</v>
       </c>
-      <c r="B253" s="16" t="n">
+      <c r="B253" s="17" t="n">
         <v>998</v>
       </c>
-      <c r="C253" s="17"/>
-      <c r="D253" s="9"/>
-      <c r="E253" s="8" t="s">
+      <c r="C253" s="18"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="F253" s="9"/>
-      <c r="G253" s="8" t="s">
+      <c r="F253" s="10"/>
+      <c r="G253" s="9" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="B254" s="16" t="n">
+      <c r="B254" s="17" t="n">
         <v>678</v>
       </c>
-      <c r="C254" s="17"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="8" t="s">
+      <c r="C254" s="18"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="F254" s="9"/>
-      <c r="G254" s="8" t="s">
+      <c r="F254" s="10"/>
+      <c r="G254" s="9" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="B255" s="16" t="n">
+      <c r="B255" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="C255" s="17"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="8" t="s">
+      <c r="C255" s="18"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="F255" s="9"/>
-      <c r="G255" s="8" t="s">
+      <c r="F255" s="10"/>
+      <c r="G255" s="9" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="B256" s="16" t="n">
+      <c r="B256" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="C256" s="17"/>
-      <c r="D256" s="9"/>
-      <c r="E256" s="8" t="s">
+      <c r="C256" s="18"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="F256" s="9"/>
-      <c r="G256" s="8" t="s">
+      <c r="F256" s="10"/>
+      <c r="G256" s="9" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="16" t="s">
         <v>926</v>
       </c>
-      <c r="B257" s="16" t="n">
+      <c r="B257" s="17" t="n">
         <v>84</v>
       </c>
-      <c r="C257" s="17"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="8" t="s">
+      <c r="C257" s="18"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="F257" s="9"/>
-      <c r="G257" s="8" t="s">
+      <c r="F257" s="10"/>
+      <c r="G257" s="9" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="B258" s="19" t="n">
+      <c r="B258" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9"/>
-      <c r="E258" s="8" t="s">
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="F258" s="17"/>
-      <c r="G258" s="8" t="s">
+      <c r="F258" s="18"/>
+      <c r="G258" s="9" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="16" t="s">
         <v>930</v>
       </c>
-      <c r="B259" s="19" t="n">
+      <c r="B259" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="8" t="s">
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="F259" s="9"/>
-      <c r="G259" s="8" t="s">
+      <c r="F259" s="10"/>
+      <c r="G259" s="9" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="20" t="s">
+      <c r="A260" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="B260" s="21" t="n">
+      <c r="B260" s="22" t="n">
         <v>808</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="C260" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D260" s="9"/>
-      <c r="E260" s="8" t="s">
+      <c r="D260" s="10"/>
+      <c r="E260" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="F260" s="9"/>
-      <c r="G260" s="8" t="s">
+      <c r="F260" s="10"/>
+      <c r="G260" s="9" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="B261" s="16" t="n">
+      <c r="B261" s="17" t="n">
         <v>681</v>
       </c>
-      <c r="C261" s="17"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="8" t="s">
+      <c r="C261" s="18"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="F261" s="9"/>
-      <c r="G261" s="8" t="s">
+      <c r="F261" s="10"/>
+      <c r="G261" s="9" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="16" t="s">
         <v>936</v>
       </c>
-      <c r="B262" s="19" t="n">
+      <c r="B262" s="20" t="n">
         <v>212</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="8" t="s">
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="F262" s="9"/>
-      <c r="G262" s="8" t="s">
+      <c r="F262" s="10"/>
+      <c r="G262" s="9" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="B263" s="16" t="n">
+      <c r="B263" s="17" t="n">
         <v>967</v>
       </c>
-      <c r="C263" s="17"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="8" t="s">
+      <c r="C263" s="18"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="F263" s="9"/>
-      <c r="G263" s="8" t="s">
+      <c r="F263" s="10"/>
+      <c r="G263" s="9" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="16" t="s">
         <v>940</v>
       </c>
-      <c r="B264" s="16" t="n">
+      <c r="B264" s="17" t="n">
         <v>260</v>
       </c>
-      <c r="C264" s="17"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="8" t="s">
+      <c r="C264" s="18"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="F264" s="9"/>
-      <c r="G264" s="8" t="s">
+      <c r="F264" s="10"/>
+      <c r="G264" s="9" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="20" t="s">
+      <c r="A265" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="B265" s="21" t="n">
+      <c r="B265" s="22" t="n">
         <v>255</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="C265" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D265" s="9"/>
-      <c r="E265" s="8" t="s">
+      <c r="D265" s="10"/>
+      <c r="E265" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="F265" s="9"/>
-      <c r="G265" s="8" t="s">
+      <c r="F265" s="10"/>
+      <c r="G265" s="9" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="16" t="s">
         <v>944</v>
       </c>
-      <c r="B266" s="16" t="n">
+      <c r="B266" s="17" t="n">
         <v>263</v>
       </c>
-      <c r="C266" s="17"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="8" t="s">
+      <c r="C266" s="18"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="F266" s="9"/>
-      <c r="G266" s="8" t="s">
+      <c r="F266" s="10"/>
+      <c r="G266" s="9" t="s">
         <v>945</v>
       </c>
     </row>
@@ -11361,191 +11350,191 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="276:276 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="26" min="4" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>948</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="31" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>955</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>956</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="30" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="30" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="30" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>962</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>963</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="30" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="30" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>969</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="30" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="30" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>978</v>
       </c>
     </row>
